--- a/utils/config/ReferenceLists/Saved_Filters.xlsx
+++ b/utils/config/ReferenceLists/Saved_Filters.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B8923127A071E00E9A76C7104B6067514FCB8C15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E097607-3EFA-4D2E-82BF-3550C2296356}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_B743FEDB8F79A8D366075C52F37BD272BA4DD00B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{534D92F4-BA74-48B8-96FA-B6E865013075}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Saved_Filters" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1373,11 +1373,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2706,6 +2712,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>